--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_14-27.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_14-27.xlsx
@@ -152,6 +152,9 @@
     <t>NEXIUM 20MG 28 F.C. TAB.</t>
   </si>
   <si>
+    <t>ONE FE ONE 120 ML SYRUP</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -207,6 +210,9 @@
   </si>
   <si>
     <t>YEAST MEPACO 60 TABS</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -1444,13 +1450,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
@@ -1462,7 +1468,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1470,17 +1476,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1488,7 +1494,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1496,17 +1502,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1514,7 +1520,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1522,13 +1528,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>73.599999999999994</v>
+        <v>32</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1548,17 +1554,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>169.19999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.29999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1566,7 +1572,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1574,17 +1580,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>45</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1600,13 +1606,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1626,13 +1632,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>73.319999999999993</v>
+        <v>62</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1652,17 +1658,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>45.5</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1670,7 +1676,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1678,17 +1684,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>116</v>
+        <v>45.5</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1710,11 +1716,11 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1730,17 +1736,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>0.66000000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1748,7 +1754,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1756,17 +1762,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1782,13 +1788,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
@@ -1800,7 +1806,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1808,17 +1814,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1826,7 +1832,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1840,7 +1846,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -1852,7 +1858,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1860,51 +1866,103 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" ht="25.5" customHeight="1">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c t="s" r="B45" s="7">
+        <v>72</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c t="s" r="H45" s="8">
+        <v>71</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9">
+        <v>2</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c r="N45" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="26.25" customHeight="1">
-      <c r="K45" s="11">
-        <v>2078.5900000000001</v>
-      </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="12">
-        <v>72</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c t="s" r="F46" s="13">
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c t="s" r="B46" s="7">
         <v>73</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
-      <c t="s" r="I46" s="15">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c t="s" r="H46" s="8">
+        <v>69</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9">
+        <v>27</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="26.25" customHeight="1">
+      <c r="K47" s="11">
+        <v>2239.5900000000001</v>
+      </c>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="12">
         <v>74</v>
       </c>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c t="s" r="F48" s="13">
+        <v>75</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
+      <c t="s" r="I48" s="15">
+        <v>76</v>
+      </c>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
+  <mergeCells count="140">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2035,10 +2093,16 @@
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:N48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
